--- a/server/CardList.xlsx
+++ b/server/CardList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\builder-Hobby\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ABA463-5A96-4D8E-B808-E2ECE967D68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152C06B7-EFD7-4F35-88CC-AEC98474F1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{7CF4C3A0-C415-4051-AE83-B9F30E11389A}"/>
   </bookViews>
@@ -17,19 +17,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="Slicer_Column3">#N/A</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
-      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId4"/>
-      </x15:slicerCaches>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -1342,21 +1331,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,8 +1352,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1481,105 +1467,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Column3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4971C4-637A-0F87-C081-B0E66ABFD0ED}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Column3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9029700" y="190501"/>
-              <a:ext cx="1828800" cy="1238250"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Column3" xr10:uid="{2824DBED-8E16-414E-B17A-3F369094C878}" sourceName="Column3">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="1" column="3"/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Column3" xr10:uid="{A273B075-39FF-4C56-8D83-8FA73D6FEC92}" cache="Slicer_Column3" caption="Column3" rowHeight="241300"/>
-</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1894,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C272B131-3F5E-4556-93C9-F0562420975E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1913,22 +1800,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39861344-2CB5-4ECE-A322-FD8595451761}">
   <dimension ref="A2:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="44.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="15.08984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="44.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1942,7 +1829,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1956,7 +1843,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1970,7 +1857,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1979,12 +1866,12 @@
       <c r="C5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1993,12 +1880,12 @@
       <c r="C6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2012,7 +1899,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2026,7 +1913,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2040,7 +1927,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2054,7 +1941,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2068,7 +1955,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2082,7 +1969,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2096,7 +1983,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2105,12 +1992,12 @@
       <c r="C14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2119,12 +2006,12 @@
       <c r="C15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2133,12 +2020,12 @@
       <c r="C16" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2152,7 +2039,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2166,7 +2053,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2180,7 +2067,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2194,7 +2081,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2203,12 +2090,12 @@
       <c r="C21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2222,7 +2109,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2236,7 +2123,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2250,7 +2137,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2264,7 +2151,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2278,7 +2165,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2292,7 +2179,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2306,7 +2193,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2315,12 +2202,12 @@
       <c r="C29" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2329,12 +2216,12 @@
       <c r="C30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2348,7 +2235,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2362,7 +2249,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2376,7 +2263,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2390,7 +2277,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2404,7 +2291,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2418,7 +2305,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2427,12 +2314,12 @@
       <c r="C37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2446,7 +2333,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2460,7 +2347,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2469,12 +2356,12 @@
       <c r="C40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2488,7 +2375,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2502,7 +2389,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2516,7 +2403,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2530,7 +2417,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2539,12 +2426,12 @@
       <c r="C45" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2553,12 +2440,12 @@
       <c r="C46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2567,12 +2454,12 @@
       <c r="C47" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2581,12 +2468,12 @@
       <c r="C48" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2600,7 +2487,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2609,12 +2496,12 @@
       <c r="C50" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2628,7 +2515,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2642,7 +2529,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2651,12 +2538,12 @@
       <c r="C53" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2665,12 +2552,12 @@
       <c r="C54" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2679,12 +2566,12 @@
       <c r="C55" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2693,12 +2580,12 @@
       <c r="C56" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2712,7 +2599,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2726,7 +2613,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2740,7 +2627,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2754,7 +2641,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2763,12 +2650,12 @@
       <c r="C61" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2777,12 +2664,12 @@
       <c r="C62" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2791,12 +2678,12 @@
       <c r="C63" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2805,12 +2692,12 @@
       <c r="C64" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2819,12 +2706,12 @@
       <c r="C65" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2833,12 +2720,12 @@
       <c r="C66" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2847,12 +2734,12 @@
       <c r="C67" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2861,12 +2748,12 @@
       <c r="C68" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2880,7 +2767,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2894,7 +2781,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -2908,7 +2795,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2922,7 +2809,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -2936,7 +2823,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -2950,7 +2837,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -2964,7 +2851,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2978,7 +2865,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -2992,7 +2879,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3006,7 +2893,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3015,12 +2902,12 @@
       <c r="C79" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3029,12 +2916,12 @@
       <c r="C80" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3043,12 +2930,12 @@
       <c r="C81" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3057,12 +2944,12 @@
       <c r="C82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3071,12 +2958,12 @@
       <c r="C83" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3085,12 +2972,12 @@
       <c r="C84" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3099,12 +2986,12 @@
       <c r="C85" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3118,7 +3005,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3127,12 +3014,12 @@
       <c r="C87" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3146,7 +3033,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3160,7 +3047,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3174,7 +3061,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3188,7 +3075,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3202,7 +3089,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3216,7 +3103,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3230,7 +3117,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3244,7 +3131,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3258,7 +3145,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3272,7 +3159,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3281,12 +3168,12 @@
       <c r="C98" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3300,7 +3187,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3309,12 +3196,12 @@
       <c r="C100" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3323,12 +3210,12 @@
       <c r="C101" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3337,12 +3224,12 @@
       <c r="C102" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -3351,12 +3238,12 @@
       <c r="C103" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -3365,12 +3252,12 @@
       <c r="C104" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -3384,7 +3271,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -3398,7 +3285,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3412,7 +3299,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3426,7 +3313,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -3440,7 +3327,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -3454,7 +3341,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -3468,7 +3355,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -3482,7 +3369,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -3496,7 +3383,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -3510,7 +3397,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -3524,7 +3411,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -3538,7 +3425,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -3552,7 +3439,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -3566,7 +3453,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -3580,7 +3467,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -3589,12 +3476,12 @@
       <c r="C120" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -3603,12 +3490,12 @@
       <c r="C121" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -3617,12 +3504,12 @@
       <c r="C122" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -3636,7 +3523,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -3645,12 +3532,12 @@
       <c r="C124" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -3659,12 +3546,12 @@
       <c r="C125" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -3673,12 +3560,12 @@
       <c r="C126" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -3692,7 +3579,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -3706,7 +3593,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -3720,7 +3607,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -3734,7 +3621,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -3748,7 +3635,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -3762,7 +3649,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -3771,12 +3658,12 @@
       <c r="C133" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -3790,7 +3677,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -3804,7 +3691,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -3818,7 +3705,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -3832,7 +3719,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -3841,12 +3728,12 @@
       <c r="C138" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -3860,7 +3747,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -3874,7 +3761,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -3888,7 +3775,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -3897,12 +3784,12 @@
       <c r="C142" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -3911,12 +3798,12 @@
       <c r="C143" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -3930,7 +3817,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -3944,7 +3831,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -3953,12 +3840,12 @@
       <c r="C146" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -3967,12 +3854,12 @@
       <c r="C147" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -3986,7 +3873,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -3995,12 +3882,12 @@
       <c r="C149" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -4014,7 +3901,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -4028,7 +3915,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -4044,17 +3931,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
-      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId4"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4062,409 +3941,409 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BA8957-002F-46CA-86D5-ED9D0599E05E}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="14"/>
-    <col min="3" max="3" width="34" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="14"/>
-    <col min="5" max="5" width="36.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="14"/>
+    <col min="1" max="1" width="58.90625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="11"/>
+    <col min="3" max="3" width="34" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="11"/>
+    <col min="5" max="5" width="36.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="10" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="10" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="10" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="10" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="10" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>403</v>
       </c>
     </row>
